--- a/essentials/br01_g08.xlsx
+++ b/essentials/br01_g08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levin\Documents\school - uclll\Semester 2\Querrying\repository\dbr01_g08\essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAD717-2883-4F9D-B763-E344671F44AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF5ED8-5FB8-4266-B789-9608BBC07D7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>datum</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t xml:space="preserve">Create Drop </t>
+  </si>
+  <si>
+    <t>Duur</t>
+  </si>
+  <si>
+    <t>2u</t>
+  </si>
+  <si>
+    <t>2,5u</t>
+  </si>
+  <si>
+    <t>4u</t>
+  </si>
+  <si>
+    <t>6u</t>
+  </si>
+  <si>
+    <t>Functionalities</t>
   </si>
 </sst>
 </file>
@@ -367,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +396,10 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -392,7 +413,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="1">
         <v>43213</v>
       </c>
@@ -406,7 +430,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="1">
         <v>43227</v>
       </c>
@@ -420,7 +447,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="1">
         <v>43234</v>
       </c>
@@ -434,7 +464,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1">
         <v>43236</v>
       </c>
@@ -445,7 +478,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1">
         <v>43237</v>
       </c>
@@ -453,11 +489,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1">
         <v>43238</v>
       </c>
       <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43238</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
